--- a/ValueSet-fp-functioning-vs.xlsx
+++ b/ValueSet-fp-functioning-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T12:58:34-04:00</t>
+    <t>2022-04-26T11:43:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-fp-functioning-vs.xlsx
+++ b/ValueSet-fp-functioning-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T11:43:49-04:00</t>
+    <t>2022-05-13T16:07:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
